--- a/data/trans_bre/P1805_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1805_2016_2023-Clase-trans_bre.xlsx
@@ -598,7 +598,7 @@
         <v>0.860257182905167</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.3671174203186915</v>
+        <v>0.3671174203186913</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3791709745849889</v>
+        <v>-0.3477390283864281</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.438918114184795</v>
+        <v>-1.353406171562423</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2211838418514166</v>
+        <v>-0.1634332813942261</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2757266616252778</v>
+        <v>-0.2638661392971202</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.522810773567874</v>
+        <v>5.014779692999844</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.110217422365435</v>
+        <v>4.242616450026476</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3.115020566227446</v>
+        <v>3.74614414608064</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.577664787071497</v>
+        <v>1.741890455374497</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>0.341315581350813</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.499337904667108</v>
+        <v>2.499337904667109</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.1768555500638116</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.722215563233937</v>
+        <v>0.7222155632339373</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.738557639665357</v>
+        <v>-1.600582994990566</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1253143897834628</v>
+        <v>-0.2149839897657503</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7046218087236946</v>
+        <v>-0.6307776628794265</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06128585489798099</v>
+        <v>-0.05948962683688657</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.782790313943664</v>
+        <v>2.708279771572895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.198771801480233</v>
+        <v>5.003071518233465</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.804101446998394</v>
+        <v>2.850343799232733</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.317225621461187</v>
+        <v>2.18295393313486</v>
       </c>
     </row>
     <row r="10">
@@ -726,7 +726,7 @@
         <v>1.74373819628388</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.3676730799582088</v>
+        <v>0.3676730799582091</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2595255470381442</v>
+        <v>0.7522068637995803</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.710491713197783</v>
+        <v>-1.627151591483001</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.04112521908523915</v>
+        <v>0.09043195906238914</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4717855053778791</v>
+        <v>-0.4772780812585461</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.467327415398726</v>
+        <v>9.672867846701809</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.644203389855569</v>
+        <v>3.900196535982607</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>5.904731516019893</v>
+        <v>5.999281797375703</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.050771442382239</v>
+        <v>1.972577665598978</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.292998986573742</v>
+        <v>1.532405497134122</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6006762621586251</v>
+        <v>-0.4308560684268155</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5902459712248898</v>
+        <v>0.7666180412288442</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1461325705944977</v>
+        <v>-0.1269023814117489</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.545310216796997</v>
+        <v>4.61297442087859</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.766499950422637</v>
+        <v>2.87883861074561</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5.719165932353262</v>
+        <v>5.840921632054836</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.24481346537246</v>
+        <v>1.294957302280834</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.479158181305905</v>
+        <v>0.4296854056525907</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2232961173512753</v>
+        <v>-0.6302247895586459</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.1489469205014456</v>
+        <v>0.1033707462478321</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.135528689910166</v>
+        <v>-0.2056181869979441</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.172800592236978</v>
+        <v>3.922172593884999</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.986309184704998</v>
+        <v>2.813306813063075</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4.331615913501235</v>
+        <v>4.175647087124948</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.801085086850807</v>
+        <v>2.802927415580582</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.385380331512893</v>
+        <v>-1.643864679680855</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-9.780298270118223</v>
+        <v>-9.40795686144182</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3912701223984931</v>
+        <v>-0.4392204977703932</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8133717667347424</v>
+        <v>-0.7954211071087872</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.73493894916093</v>
+        <v>2.403022223683907</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6362944315672083</v>
+        <v>0.8907089946016088</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.65915248278127</v>
+        <v>2.027638023487485</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3024924041348493</v>
+        <v>0.3289245070170666</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.120185545325053</v>
+        <v>1.087629909243769</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.08626128133682537</v>
+        <v>-0.123560772518717</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.5271655645911384</v>
+        <v>0.4947842783420561</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.02265778485853488</v>
+        <v>-0.03633419366354729</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.713028773504807</v>
+        <v>2.724139238881292</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.809195683042934</v>
+        <v>1.864504668210676</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>1.780951014368689</v>
+        <v>1.867232193727568</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.6689443264117333</v>
+        <v>0.6901475522090446</v>
       </c>
     </row>
     <row r="25">
